--- a/docs/ST1a/ST1a_05.08.24_output.xlsx
+++ b/docs/ST1a/ST1a_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731660005.3332262</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731660006.4741821</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731660005.3332262.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731660006.4741821.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.61</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>276.34</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.270000000000039</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731660014.682941</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731660016.9242287</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660014.682941.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660016.9242287.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>128.66</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>128.07</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5900000000000034</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731660016.9401848</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731660017.735142</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660016.9401848.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660017.735142.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>127.99</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731660019.499753</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731660020.5356288</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660019.499753.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660020.5356288.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.94</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.96</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731660021.7260487</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731660022.8386033</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660021.7260487.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660022.8386033.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.04</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731660023.9032793</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731660024.9514508</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660023.9032793.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660024.9514508.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.16</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.06</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731660024.9693804</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731660025.8454056</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660024.9693804.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731660025.8454056.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.06</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.76</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -903,95 +961,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731660027.2825294</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731660027.2825294.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731660027.2825294.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.64</v>
       </c>
-      <c r="J10" t="n">
-        <v>127.64</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>127.48</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731660031.1896708</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731660033.257174</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731660031.1896708.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731660033.257174.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6416.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6367.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-49</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731660037.2783659</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731660040.0091426</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731660037.2783659.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731660040.0091426.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6443</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6422.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-20.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731660041.8933334</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731660042.2478034</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731660041.8933334.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731660042.2478034.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>497.25</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>498.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731660054.0468934</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731660054.9301834</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660054.0468934.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660054.9301834.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>224.29</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>224.41</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731660054.94614</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731660055.910365</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660054.94614.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660055.910365.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>224.41</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>223.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6099999999999852</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731660056.301635</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731660057.4267173</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660056.301635.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660057.4267173.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>224</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>222.67</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.330000000000013</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731660058.2241328</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731660061.0685833</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660058.2241328.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660061.0685833.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>223.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>225.26</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-2.159999999999997</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.97</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731660061.1237106</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731660062.1043496</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660061.1237106.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660062.1043496.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>225.02</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>224.85</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.1700000000000159</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731660062.200119</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731660063.0426967</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660062.200119.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731660063.0426967.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>225.1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1415,95 +1533,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731660063.0965488</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731660063.0965488.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731660063.0965488.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.95</v>
       </c>
-      <c r="J20" t="n">
-        <v>224.95</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>223.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.560000000000002</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731660067.8490484</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731660068.3270395</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660067.8490484.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660068.3270395.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1008</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1008</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731660069.315641</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731660070.795249</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660069.315641.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660070.795249.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1000.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>5.599999999999909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731660071.2942524</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731660073.3561351</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660071.2942524.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660073.3561351.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1001.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-7.199999999999932</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731660073.3721259</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731660074.1485436</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660073.3721259.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660074.1485436.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731660074.1645074</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731660075.1758687</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660074.1645074.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660075.1758687.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1008.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1009</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731660075.5439548</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731660077.5156507</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660075.5439548.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731660077.5156507.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1009</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1005.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731660090.8097723</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731660091.4379442</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731660090.8097723.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731660091.4379442.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>124.14</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>124.02</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731660091.4539013</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731660094.8984864</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731660091.4539013.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731660094.8984864.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>124.02</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>124.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731660106.4780312</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731660107.0187438</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660106.4780312.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660107.0187438.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>160.7</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>160.84</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731660107.03573</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731660108.284682</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660107.03573.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660108.284682.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>160.84</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>161.14</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.2999999999999829</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731660109.2215655</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731660109.595376</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660109.2215655.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660109.595376.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>161.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>160.62</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731660110.5531707</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731660110.861414</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660110.5531707.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731660110.861414.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>160.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>160.58</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731660112.2710633</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731660113.1267178</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660112.2710633.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660113.1267178.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>49.13</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>49.09</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731660113.1426752</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731660115.7256558</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660113.1426752.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660115.7256558.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>49.09</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>48.805</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2850000000000037</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731660117.161778</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731660118.7205791</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660117.161778.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731660118.7205791.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>48.73</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>49.16</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.4299999999999997</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731660127.6400466</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731660128.0327513</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660127.6400466.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660128.0327513.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1382.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>3.199999999999818</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731660134.3365722</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731660135.1541448</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660134.3365722.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660135.1541448.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1380</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731660135.472672</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731660137.1857746</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660135.472672.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731660137.1857746.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1376.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731660143.21215</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731660144.5135128</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660143.21215.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660144.5135128.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.38</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.55</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1699999999999946</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731660144.5294704</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731660145.9223244</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660144.5294704.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660145.9223244.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.55</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.62</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731660145.9392762</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731660146.9060965</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660145.9392762.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660146.9060965.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>59.64</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731660146.923051</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731660147.7843647</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660146.923051.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731660147.7843647.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>59.64</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>59.69</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731660152.4681756</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731660152.6498976</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731660152.4681756.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731660152.6498976.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>96.02</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731660155.7081485</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731660156.3115978</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731660155.7081485.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731660156.3115978.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>96.12</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>95.77</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731660162.0435984</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731660163.3811147</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660162.0435984.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660163.3811147.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>55.83</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>55.73</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731660164.1699886</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731660165.4643145</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660164.1699886.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660165.4643145.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>56.21</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>56.19</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731660165.5171719</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731660166.4936416</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660165.5171719.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660166.4936416.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>56.18</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>56.19</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731660166.509599</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731660168.997626</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660166.509599.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731660168.997626.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>56.19</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>56.12</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731660174.245639</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731660175.443839</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731660174.245639.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731660175.443839.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>139.98</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>139.42</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731660175.9309425</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731660178.256636</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731660175.9309425.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731660178.256636.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>139.18</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>142.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-3.019999999999982</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-2.17</v>
       </c>
     </row>
@@ -3019,95 +3323,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731660181.2829247</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731660181.2829247.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731660181.2829247.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>142.2</v>
       </c>
-      <c r="J51" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>141.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731660184.2570956</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731660186.9558208</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660184.2570956.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660186.9558208.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20.11</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>19.936</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.1739999999999995</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731660187.0127409</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731660188.0380626</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660187.0127409.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660188.0380626.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>19.949</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>19.826</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1230000000000011</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731660188.969839</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731660191.1351807</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660188.969839.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660191.1351807.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>19.858</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>19.919</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.06099999999999994</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731660191.1521077</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731660192.5314345</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660191.1521077.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660192.5314345.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>19.919</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>19.9</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.0190000000000019</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731660193.6172516</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731660195.3463092</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660193.6172516.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731660195.3463092.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>19.944</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>19.898</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.04599999999999937</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3323,95 +3663,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731660195.3632922</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731660195.3632922.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731660195.3632922.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>19.898</v>
       </c>
-      <c r="J57" t="n">
-        <v>19.898</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1370000000000005</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731660197.3850715</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731660201.9178483</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660197.3850715.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660201.9178483.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>650.9</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>657.05</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>6.149999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -3419,51 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731660201.934803</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731660204.4283957</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660201.934803.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660204.4283957.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>657.05</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>661.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-4.450000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -3471,51 +3829,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731660204.446348</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731660205.7107685</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660204.446348.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660205.7107685.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>661.5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>660.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731660206.000353</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731660206.804047</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660206.000353.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731660206.804047.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>660.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>660.5</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3575,95 +3945,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731660206.8210044</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731660206.8210044.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731660206.8210044.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>660.5</v>
       </c>
-      <c r="J62" t="n">
-        <v>660.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731660218.377653</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731660219.6107635</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660218.377653.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660219.6107635.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.09558000000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.0001599999999999935</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731660220.9940708</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731660221.0507462</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660220.9940708.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660221.0507462.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.0003399999999999931</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731660223.324839</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731660226.0142477</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660223.324839.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660226.0142477.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.0004600000000000021</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731660226.0312068</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731660230.1080463</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660226.0312068.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731660230.1080463.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.095</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.0005200000000000066</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -3827,95 +4227,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731660230.1249673</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731660230.1249673.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731660230.1249673.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.095</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.09504</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-3.999999999999837e-05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731660233.3750288</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731660234.3447657</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731660233.3750288.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731660234.3447657.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>95.44</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>94.94</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.5</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -3923,95 +4335,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731660235.4813893</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731660235.4813893.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731660235.4813893.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>94.83</v>
       </c>
-      <c r="J69" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731660236.5466025</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731660238.475379</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731660236.5466025.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731660238.475379.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2902.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2897.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-5.599999999999909</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4019,51 +4443,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731660242.9613974</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731660243.8445637</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731660242.9613974.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731660243.8445637.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.349999999999909</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4071,51 +4501,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731660251.1631694</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731660251.8786716</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731660251.1631694.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731660251.8786716.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>11.894</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>11.908</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4123,51 +4559,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731660252.7979546</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731660253.637996</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731660252.7979546.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731660253.637996.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>11.905</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>11.941</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03600000000000136</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4229,19 +4671,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3700000000000188</v>
+        <v>-0.2100000000000222</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05285714285714554</v>
+        <v>-0.03000000000000317</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -4251,19 +4693,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-1.780000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03142857142857126</v>
+        <v>-0.2542857142857144</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1199999999999999</v>
+        <v>-0.8099999999999998</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
@@ -4273,19 +4715,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1769999999999996</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02949999999999993</v>
+        <v>-0.006666666666666525</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8899999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.15</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5">
@@ -4317,16 +4759,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000800000000000009</v>
+        <v>-0.0008400000000000074</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001600000000000018</v>
+        <v>-0.0001680000000000015</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8300000000000001</v>
+        <v>-0.8700000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>-0.17</v>
@@ -4339,19 +4781,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>-3</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07000000000000013</v>
+        <v>-0.4599999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
@@ -4449,19 +4891,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.579999999999984</v>
+        <v>-4.439999999999969</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.193333333333328</v>
+        <v>-1.47999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.57</v>
+        <v>-3.17</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.86</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="13">
@@ -4581,19 +5023,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E18" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F18" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
